--- a/docs/data/weight_loss_incentives.xlsx
+++ b/docs/data/weight_loss_incentives.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craigaj\Documents\GitHub\M221R\docs\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craigaj\Documents\GitHub\M221R\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A209C9FD-F704-4DA9-8E2C-34EC119535D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D951C19-22B7-4B19-8282-BB2DCFFEF44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-8205" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
